--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2005.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2005.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>62536.120000000003</t>
+          <t>62536.12</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>892.05999999999995</t>
+          <t>892.06</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>1639.0899999999999</t>
+          <t>1639.09</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>2247.0100000000002</t>
+          <t>2247.01</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>3113.8800000000001</t>
+          <t>3113.88</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>46317.199999999997</t>
+          <t>46317.2</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>94796.399999999994</t>
+          <t>94796.4</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>2191.1900000000001</t>
+          <t>2191.19</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>63940.260000000002</t>
+          <t>63940.26</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>990791.45999999996</t>
+          <t>990791.46</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>1933.5899999999999</t>
+          <t>1933.59</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>45220.470000000001</t>
+          <t>45220.47</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>99.870000000000005</t>
+          <t>99.87</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>81.069999999999993</t>
+          <t>81.07</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>1033.5899999999999</t>
+          <t>1033.59</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>10289.610000000001</t>
+          <t>10289.61</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>15.380000000000001</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>1706.5599999999999</t>
+          <t>1706.56</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>26043.639999999999</t>
+          <t>26043.64</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>677.44000000000005</t>
+          <t>677.44</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>128.09999999999999</t>
+          <t>128.1</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>989.91999999999996</t>
+          <t>989.92</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>563.03999999999996</t>
+          <t>563.04</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>229530.57999999999</t>
+          <t>229530.58</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>3574.4400000000001</t>
+          <t>3574.44</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>2629.1199999999999</t>
+          <t>2629.12</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>20699.400000000001</t>
+          <t>20699.4</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>1104.9000000000001</t>
+          <t>1104.9</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>1742.1300000000001</t>
+          <t>1742.13</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>210.13999999999999</t>
+          <t>210.14</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>37202.779999999999</t>
+          <t>37202.78</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>102.84999999999999</t>
+          <t>102.85</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>327623.53999999998</t>
+          <t>327623.54</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>35395.760000000002</t>
+          <t>35395.76</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>854.83000000000004</t>
+          <t>854.83</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>521942.41999999998</t>
+          <t>521942.42</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>44009.800000000003</t>
+          <t>44009.8</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>2740.5900000000001</t>
+          <t>2740.59</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>46881.220000000001</t>
+          <t>46881.22</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>4.8899999999999997</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>44217.370000000003</t>
+          <t>44217.37</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>8354.3999999999996</t>
+          <t>8354.4</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>6685.6700000000001</t>
+          <t>6685.67</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>33.490000000000002</t>
+          <t>33.49</t>
         </is>
       </c>
       <c r="E104" s="0" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>5.3899999999999997</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E105" s="0" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>699.33000000000004</t>
+          <t>699.33</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>10081.190000000001</t>
+          <t>10081.19</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>20627.240000000002</t>
+          <t>20627.24</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>213055.73000000001</t>
+          <t>213055.73</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
-          <t>13696.370000000001</t>
+          <t>13696.37</t>
         </is>
       </c>
       <c r="E120" s="0" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>2325.3000000000002</t>
+          <t>2325.3</t>
         </is>
       </c>
       <c r="E125" s="0" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D136" s="0" t="inlineStr">
         <is>
-          <t>379.79000000000002</t>
+          <t>379.79</t>
         </is>
       </c>
       <c r="E136" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>227744.26000000001</t>
+          <t>227744.26</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>14336.200000000001</t>
+          <t>14336.2</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>7862.7399999999998</t>
+          <t>7862.74</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>7188376.7000000002</t>
+          <t>7188376.7</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>3391204.7200000002</t>
+          <t>3391204.72</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>148548.26999999999</t>
+          <t>148548.27</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>2272696.3700000001</t>
+          <t>2272696.37</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>81412.460000000006</t>
+          <t>81412.46</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>17641.080000000002</t>
+          <t>17641.08</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>216926.32999999999</t>
+          <t>216926.33</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t>21760.130000000001</t>
+          <t>21760.13</t>
         </is>
       </c>
       <c r="E163" s="0" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>9596.6800000000003</t>
+          <t>9596.68</t>
         </is>
       </c>
       <c r="E165" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>4379368.1699999999</t>
+          <t>4379368.17</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>2196485.0899999999</t>
+          <t>2196485.09</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>2762512.2400000002</t>
+          <t>2762512.24</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>616376.89000000001</t>
+          <t>616376.89</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>136707.01999999999</t>
+          <t>136707.02</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>22970.220000000001</t>
+          <t>22970.22</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>161825.23999999999</t>
+          <t>161825.24</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>451549.52000000002</t>
+          <t>451549.52</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>54800.410000000003</t>
+          <t>54800.41</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>14316.799999999999</t>
+          <t>14316.8</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>303104.02000000002</t>
+          <t>303104.02</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>88.819999999999993</t>
+          <t>88.82</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>787417.90000000002</t>
+          <t>787417.9</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>58942.379999999997</t>
+          <t>58942.38</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>72965.440000000002</t>
+          <t>72965.44</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>39040.709999999999</t>
+          <t>39040.71</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D186" s="0" t="inlineStr">
         <is>
-          <t>3788.6300000000001</t>
+          <t>3788.63</t>
         </is>
       </c>
       <c r="E186" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>25249.209999999999</t>
+          <t>25249.21</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>406034.73999999999</t>
+          <t>406034.74</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>501253.70000000001</t>
+          <t>501253.7</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="D193" s="0" t="inlineStr">
         <is>
-          <t>159.46000000000001</t>
+          <t>159.46</t>
         </is>
       </c>
       <c r="E193" s="0" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D194" s="0" t="inlineStr">
         <is>
-          <t>9454.3099999999995</t>
+          <t>9454.31</t>
         </is>
       </c>
       <c r="E194" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>260.31999999999999</t>
+          <t>260.32</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>81746.300000000003</t>
+          <t>81746.3</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>846.88999999999999</t>
+          <t>846.89</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>80.120000000000005</t>
+          <t>80.12</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>492.60000000000002</t>
+          <t>492.6</t>
         </is>
       </c>
       <c r="E208" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>33.409999999999997</t>
+          <t>33.41</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D213" s="0" t="inlineStr">
         <is>
-          <t>25.190000000000001</t>
+          <t>25.19</t>
         </is>
       </c>
       <c r="E213" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>292.35000000000002</t>
+          <t>292.35</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D217" s="0" t="inlineStr">
         <is>
-          <t>1929.3299999999999</t>
+          <t>1929.33</t>
         </is>
       </c>
       <c r="E217" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>20710.759999999998</t>
+          <t>20710.76</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>37764.610000000001</t>
+          <t>37764.61</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
-          <t>2151.8400000000001</t>
+          <t>2151.84</t>
         </is>
       </c>
       <c r="E223" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>1372.8199999999999</t>
+          <t>1372.82</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>69581.399999999994</t>
+          <t>69581.4</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>894.39999999999998</t>
+          <t>894.4</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>6009.3800000000001</t>
+          <t>6009.38</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>9358257.9299999997</t>
+          <t>9358257.93</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>29683.349999999999</t>
+          <t>29683.35</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>91966.289999999994</t>
+          <t>91966.29</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="D243" s="0" t="inlineStr">
         <is>
-          <t>20991.959999999999</t>
+          <t>20991.96</t>
         </is>
       </c>
       <c r="E243" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>31185.150000000001</t>
+          <t>31185.15</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>183084.29999999999</t>
+          <t>183084.3</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="D252" s="0" t="inlineStr">
         <is>
-          <t>7.7800000000000002</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E252" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>1091019.1200000001</t>
+          <t>1091019.12</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>3157.5100000000002</t>
+          <t>3157.51</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>6155.0699999999997</t>
+          <t>6155.07</t>
         </is>
       </c>
       <c r="E263" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>17647.610000000001</t>
+          <t>17647.61</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>6470.3999999999996</t>
+          <t>6470.4</t>
         </is>
       </c>
       <c r="E285" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>1478924.3400000001</t>
+          <t>1478924.34</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
-          <t>2728.8400000000001</t>
+          <t>2728.84</t>
         </is>
       </c>
       <c r="E292" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>495208.78000000003</t>
+          <t>495208.78</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="D303" s="0" t="inlineStr">
         <is>
-          <t>61920.010000000002</t>
+          <t>61920.01</t>
         </is>
       </c>
       <c r="E303" s="0" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="D311" s="0" t="inlineStr">
         <is>
-          <t>43.799999999999997</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="E311" s="0" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>12680.040000000001</t>
+          <t>12680.04</t>
         </is>
       </c>
       <c r="E312" s="0" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="D321" s="0" t="inlineStr">
         <is>
-          <t>1162.6500000000001</t>
+          <t>1162.65</t>
         </is>
       </c>
       <c r="E321" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>613594.78000000003</t>
+          <t>613594.78</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>53464.220000000001</t>
+          <t>53464.22</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>67600.539999999994</t>
+          <t>67600.54</t>
         </is>
       </c>
       <c r="E328" s="0" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="D332" s="0" t="inlineStr">
         <is>
-          <t>12770.950000000001</t>
+          <t>12770.95</t>
         </is>
       </c>
       <c r="E332" s="0" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>149978.35999999999</t>
+          <t>149978.36</t>
         </is>
       </c>
       <c r="E334" s="0" t="inlineStr">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="D335" s="0" t="inlineStr">
         <is>
-          <t>25.100000000000001</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="E335" s="0" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="D344" s="0" t="inlineStr">
         <is>
-          <t>919.70000000000005</t>
+          <t>919.7</t>
         </is>
       </c>
       <c r="E344" s="0" t="inlineStr">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="D347" s="0" t="inlineStr">
         <is>
-          <t>990.77999999999997</t>
+          <t>990.78</t>
         </is>
       </c>
       <c r="E347" s="0" t="inlineStr">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="D357" s="0" t="inlineStr">
         <is>
-          <t>2121.0799999999999</t>
+          <t>2121.08</t>
         </is>
       </c>
       <c r="E357" s="0" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="D358" s="0" t="inlineStr">
         <is>
-          <t>10.619999999999999</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="E358" s="0" t="inlineStr">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="D369" s="0" t="inlineStr">
         <is>
-          <t>34.899999999999999</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="E369" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>29828.470000000001</t>
+          <t>29828.47</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>1779.4200000000001</t>
+          <t>1779.42</t>
         </is>
       </c>
       <c r="E371" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>66629.589999999997</t>
+          <t>66629.59</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D374" s="0" t="inlineStr">
         <is>
-          <t>24.300000000000001</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="E374" s="0" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="D377" s="0" t="inlineStr">
         <is>
-          <t>51.560000000000002</t>
+          <t>51.56</t>
         </is>
       </c>
       <c r="E377" s="0" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="D380" s="0" t="inlineStr">
         <is>
-          <t>30677.400000000001</t>
+          <t>30677.4</t>
         </is>
       </c>
       <c r="E380" s="0" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="D386" s="0" t="inlineStr">
         <is>
-          <t>298.25999999999999</t>
+          <t>298.26</t>
         </is>
       </c>
       <c r="E386" s="0" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="D406" s="0" t="inlineStr">
         <is>
-          <t>1617.5999999999999</t>
+          <t>1617.6</t>
         </is>
       </c>
       <c r="E406" s="0" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="D409" s="0" t="inlineStr">
         <is>
-          <t>612.55999999999995</t>
+          <t>612.56</t>
         </is>
       </c>
       <c r="E409" s="0" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="D415" s="0" t="inlineStr">
         <is>
-          <t>17516.759999999998</t>
+          <t>17516.76</t>
         </is>
       </c>
       <c r="E415" s="0" t="inlineStr">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="D424" s="0" t="inlineStr">
         <is>
-          <t>60.659999999999997</t>
+          <t>60.66</t>
         </is>
       </c>
       <c r="E424" s="0" t="inlineStr">
@@ -11917,7 +11917,7 @@
       </c>
       <c r="D428" s="0" t="inlineStr">
         <is>
-          <t>56.859999999999999</t>
+          <t>56.86</t>
         </is>
       </c>
       <c r="E428" s="0" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="D433" s="0" t="inlineStr">
         <is>
-          <t>28.809999999999999</t>
+          <t>28.81</t>
         </is>
       </c>
       <c r="E433" s="0" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="D444" s="0" t="inlineStr">
         <is>
-          <t>207.65000000000001</t>
+          <t>207.65</t>
         </is>
       </c>
       <c r="E444" s="0" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D445" s="0" t="inlineStr">
         <is>
-          <t>3816.5999999999999</t>
+          <t>3816.6</t>
         </is>
       </c>
       <c r="E445" s="0" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="D463" s="0" t="inlineStr">
         <is>
-          <t>6156.5100000000002</t>
+          <t>6156.51</t>
         </is>
       </c>
       <c r="E463" s="0" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="D489" s="0" t="inlineStr">
         <is>
-          <t>184.30000000000001</t>
+          <t>184.3</t>
         </is>
       </c>
       <c r="E489" s="0" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="D490" s="0" t="inlineStr">
         <is>
-          <t>399.04000000000002</t>
+          <t>399.04</t>
         </is>
       </c>
       <c r="E490" s="0" t="inlineStr">
@@ -13618,7 +13618,7 @@
       </c>
       <c r="D491" s="0" t="inlineStr">
         <is>
-          <t>80.790000000000006</t>
+          <t>80.79</t>
         </is>
       </c>
       <c r="E491" s="0" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="D492" s="0" t="inlineStr">
         <is>
-          <t>294.43000000000001</t>
+          <t>294.43</t>
         </is>
       </c>
       <c r="E492" s="0" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="D493" s="0" t="inlineStr">
         <is>
-          <t>293.32999999999998</t>
+          <t>293.33</t>
         </is>
       </c>
       <c r="E493" s="0" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="D496" s="0" t="inlineStr">
         <is>
-          <t>567.39999999999998</t>
+          <t>567.4</t>
         </is>
       </c>
       <c r="E496" s="0" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="D500" s="0" t="inlineStr">
         <is>
-          <t>11.220000000000001</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="E500" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>94867.880000000005</t>
+          <t>94867.88</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>2147.8299999999999</t>
+          <t>2147.83</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="D508" s="0" t="inlineStr">
         <is>
-          <t>263.99000000000001</t>
+          <t>263.99</t>
         </is>
       </c>
       <c r="E508" s="0" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="D510" s="0" t="inlineStr">
         <is>
-          <t>5214.2200000000003</t>
+          <t>5214.22</t>
         </is>
       </c>
       <c r="E510" s="0" t="inlineStr">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="D511" s="0" t="inlineStr">
         <is>
-          <t>429.02999999999997</t>
+          <t>429.03</t>
         </is>
       </c>
       <c r="E511" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>9037.4799999999996</t>
+          <t>9037.48</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="D515" s="0" t="inlineStr">
         <is>
-          <t>353.74000000000001</t>
+          <t>353.74</t>
         </is>
       </c>
       <c r="E515" s="0" t="inlineStr">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="D517" s="0" t="inlineStr">
         <is>
-          <t>216.66999999999999</t>
+          <t>216.67</t>
         </is>
       </c>
       <c r="E517" s="0" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="D521" s="0" t="inlineStr">
         <is>
-          <t>84.420000000000002</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="E521" s="0" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="D522" s="0" t="inlineStr">
         <is>
-          <t>58.140000000000001</t>
+          <t>58.14</t>
         </is>
       </c>
       <c r="E522" s="0" t="inlineStr">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="D550" s="0" t="inlineStr">
         <is>
-          <t>10113.639999999999</t>
+          <t>10113.64</t>
         </is>
       </c>
       <c r="E550" s="0" t="inlineStr">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="D572" s="0" t="inlineStr">
         <is>
-          <t>1942.1600000000001</t>
+          <t>1942.16</t>
         </is>
       </c>
       <c r="E572" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>523920.41999999998</t>
+          <t>523920.42</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -15967,7 +15967,7 @@
       </c>
       <c r="D578" s="0" t="inlineStr">
         <is>
-          <t>57.630000000000003</t>
+          <t>57.63</t>
         </is>
       </c>
       <c r="E578" s="0" t="inlineStr">
@@ -16237,7 +16237,7 @@
       </c>
       <c r="D588" s="0" t="inlineStr">
         <is>
-          <t>1171.1600000000001</t>
+          <t>1171.16</t>
         </is>
       </c>
       <c r="E588" s="0" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="D589" s="0" t="inlineStr">
         <is>
-          <t>620.54999999999995</t>
+          <t>620.55</t>
         </is>
       </c>
       <c r="E589" s="0" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="D593" s="0" t="inlineStr">
         <is>
-          <t>43.409999999999997</t>
+          <t>43.41</t>
         </is>
       </c>
       <c r="E593" s="0" t="inlineStr">
@@ -16426,7 +16426,7 @@
       </c>
       <c r="D595" s="0" t="inlineStr">
         <is>
-          <t>481.67000000000002</t>
+          <t>481.67</t>
         </is>
       </c>
       <c r="E595" s="0" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="D598" s="0" t="inlineStr">
         <is>
-          <t>155.93000000000001</t>
+          <t>155.93</t>
         </is>
       </c>
       <c r="E598" s="0" t="inlineStr">
@@ -16561,7 +16561,7 @@
       </c>
       <c r="D600" s="0" t="inlineStr">
         <is>
-          <t>31538.720000000001</t>
+          <t>31538.72</t>
         </is>
       </c>
       <c r="E600" s="0" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D610" s="0" t="inlineStr">
         <is>
-          <t>5207.3199999999997</t>
+          <t>5207.32</t>
         </is>
       </c>
       <c r="E610" s="0" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D614" s="0" t="inlineStr">
         <is>
-          <t>542.01999999999998</t>
+          <t>542.02</t>
         </is>
       </c>
       <c r="E614" s="0" t="inlineStr">
@@ -17911,7 +17911,7 @@
       </c>
       <c r="D650" s="0" t="inlineStr">
         <is>
-          <t>8368.5599999999995</t>
+          <t>8368.56</t>
         </is>
       </c>
       <c r="E650" s="0" t="inlineStr">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="D658" s="0" t="inlineStr">
         <is>
-          <t>1155.0599999999999</t>
+          <t>1155.06</t>
         </is>
       </c>
       <c r="E658" s="0" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="D659" s="0" t="inlineStr">
         <is>
-          <t>19344.740000000002</t>
+          <t>19344.74</t>
         </is>
       </c>
       <c r="E659" s="0" t="inlineStr">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="D661" s="0" t="inlineStr">
         <is>
-          <t>1107.3499999999999</t>
+          <t>1107.35</t>
         </is>
       </c>
       <c r="E661" s="0" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="D680" s="0" t="inlineStr">
         <is>
-          <t>3880.8899999999999</t>
+          <t>3880.89</t>
         </is>
       </c>
       <c r="E680" s="0" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="D681" s="0" t="inlineStr">
         <is>
-          <t>16808.450000000001</t>
+          <t>16808.45</t>
         </is>
       </c>
       <c r="E681" s="0" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="D683" s="0" t="inlineStr">
         <is>
-          <t>1920.9000000000001</t>
+          <t>1920.9</t>
         </is>
       </c>
       <c r="E683" s="0" t="inlineStr">
@@ -18910,7 +18910,7 @@
       </c>
       <c r="D687" s="0" t="inlineStr">
         <is>
-          <t>5525.1099999999997</t>
+          <t>5525.11</t>
         </is>
       </c>
       <c r="E687" s="0" t="inlineStr">
